--- a/resources/data/HeadCount_220125.xlsx
+++ b/resources/data/HeadCount_220125.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CECHEVARRIAMENDOZA\OneDrive - Brunswick Corporation\Documents\Proyectos_Python\PyQT_proyects\rwApp\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bconline-my.sharepoint.com/personal/cristian_echevarria_navicogroup_com/Documents/Documents/Proyectos_Python/PyQT_proyects/rwApp/RegistroReparaciones/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018CF5C7-D8BC-4B7F-9DD0-F2CC2E0A5652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="276" windowWidth="23256" windowHeight="12072" xr2:uid="{49670DD3-D2BF-43BB-B01F-FBBCE80C0013}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{49670DD3-D2BF-43BB-B01F-FBBCE80C0013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -958,25 +958,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EB7DBE-3BE7-4618-AF64-7E32914CFF8D}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>180</v>
       </c>

--- a/resources/data/HeadCount_220125.xlsx
+++ b/resources/data/HeadCount_220125.xlsx
@@ -959,7 +959,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+      <selection activeCell="E39" sqref="E39:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/data/HeadCount_220125.xlsx
+++ b/resources/data/HeadCount_220125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bconline-my.sharepoint.com/personal/cristian_echevarria_navicogroup_com/Documents/Documents/Proyectos_Python/PyQT_proyects/rwApp/RegistroReparaciones/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bconline-my.sharepoint.com/personal/cristian_echevarria_navicogroup_com/Documents/Documents/Proyectos_Python/Flask/RegistroReparaciones/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018CF5C7-D8BC-4B7F-9DD0-F2CC2E0A5652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{018CF5C7-D8BC-4B7F-9DD0-F2CC2E0A5652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD9F978-F67F-4C2E-A6A4-4F410787B34A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{49670DD3-D2BF-43BB-B01F-FBBCE80C0013}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="182">
   <si>
     <t>Manager</t>
   </si>
@@ -566,19 +566,22 @@
     <t>GOMEZ CORDOVA, FIDEL JOULIANO</t>
   </si>
   <si>
+    <t>TECNICO SMT I</t>
+  </si>
+  <si>
+    <t>LUNES A SABADO 7:00 - 17:00</t>
+  </si>
+  <si>
+    <t>JUAN MURILLO</t>
+  </si>
+  <si>
+    <t>MIGUEL CAMPOS</t>
+  </si>
+  <si>
+    <t>ZAZUETA VAZQUEZ,LUIS ENRIQUE</t>
+  </si>
+  <si>
     <t>ECHEVARRIA MENDOZA,CRISTIAN ALFONSO</t>
-  </si>
-  <si>
-    <t>TECNICO SMT I</t>
-  </si>
-  <si>
-    <t>LUNES A SABADO 7:00 - 17:00</t>
-  </si>
-  <si>
-    <t>JUAN MURILLO</t>
-  </si>
-  <si>
-    <t>MIGUEL CAMPOS</t>
   </si>
 </sst>
 </file>
@@ -956,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EB7DBE-3BE7-4618-AF64-7E32914CFF8D}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111">
         <v>1016</v>
@@ -4510,21 +4513,53 @@
         <v>15310</v>
       </c>
       <c r="E111" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" t="s">
         <v>176</v>
-      </c>
-      <c r="F111" t="s">
-        <v>177</v>
       </c>
       <c r="G111">
         <v>44688</v>
       </c>
       <c r="H111" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" t="s">
         <v>178</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>179</v>
       </c>
-      <c r="J111" t="s">
+      <c r="B112">
+        <v>1016</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112">
+        <v>14355</v>
+      </c>
+      <c r="E112" t="s">
+        <v>180</v>
+      </c>
+      <c r="F112" t="s">
+        <v>176</v>
+      </c>
+      <c r="G112">
+        <v>44688</v>
+      </c>
+      <c r="H112" t="s">
+        <v>177</v>
+      </c>
+      <c r="I112" t="s">
+        <v>178</v>
+      </c>
+      <c r="J112" t="s">
         <v>16</v>
       </c>
     </row>
